--- a/02_ZEITPLAN/zeitplan_14.02.2020_v02 .xlsx
+++ b/02_ZEITPLAN/zeitplan_14.02.2020_v02 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josiah\Documents\IPA2020_JOSIAH_SCHIESS\02_ZEITPLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B391B1-B055-48B7-B886-98AEB3F06D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BAE690-39B2-4BA6-A5E7-353727B3188D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25308" yWindow="444" windowWidth="25416" windowHeight="15972" xr2:uid="{74D2615D-1CED-415F-A807-8E49B652F1F1}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="82">
   <si>
     <t>Tag 1</t>
   </si>
@@ -4092,9 +4092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47C3C77-DD25-4E69-9FF0-12031AADE1AE}">
   <dimension ref="A1:AX81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomLeft" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4104,7 +4104,7 @@
     <col min="4" max="4" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="C5" s="42">
         <f>SUM(D6:AU6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -4543,7 +4543,9 @@
         <v>1</v>
       </c>
       <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="11">
+        <v>1</v>
+      </c>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="11"/>
@@ -6841,7 +6843,7 @@
       </c>
       <c r="C47" s="42">
         <f>SUM(D48:AU48)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -6908,8 +6910,12 @@
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
+      <c r="P48" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>1</v>
+      </c>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
       <c r="T48" s="11"/>
@@ -8618,7 +8624,7 @@
       </c>
       <c r="C78" s="25">
         <f>SUM(C5:C76)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D78" s="15" cm="1">
         <f t="array" ref="D78">SUM(IF(MOD(1+ ROW( Table24[[#All],[Column1]:[Column4]]),2)=0,Table24[[#All],[Column1]:[Column4]],0))</f>
@@ -8674,7 +8680,7 @@
       </c>
       <c r="Q78" s="16" cm="1">
         <f t="array" ref="Q78">SUM(IF(MOD(ROW(Table24[[#All],[Column25]:[Column28]]),2)=0,Table24[[#All],[Column25]:[Column28]],0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R78" s="16"/>
       <c r="S78" s="16"/>
